--- a/Assignment_1/Matrix.xlsx
+++ b/Assignment_1/Matrix.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthijs\Documents\UTwente\Quater_2(2017-1A)\Embedded_Computer_Architecture\Assignment_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthijs\Documents\UTwente\Quater_2(2017-1A)\Embedded_Computer_Architecture\Embedded_Computer_Architecture_GIT\Assignment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
@@ -503,12 +503,12 @@
   <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12:AB24"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>28</v>
       </c>
@@ -549,7 +549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>113</v>
       </c>
@@ -590,7 +590,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>47</v>
       </c>
@@ -631,7 +631,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>38</v>
       </c>
@@ -672,7 +672,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>40</v>
       </c>
@@ -713,7 +713,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45</v>
       </c>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>101</v>
       </c>
@@ -798,7 +798,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>9</v>
       </c>
@@ -839,7 +839,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>75</v>
       </c>
@@ -880,7 +880,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>90</v>
       </c>
@@ -924,7 +924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>81</v>
       </c>
@@ -965,7 +965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>25</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>59</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P14">
         <v>112</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>102</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>106</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>65</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>114</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>25</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>39</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>58</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>119</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>121</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>29</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>70</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>123</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>66012</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>81197</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>61067</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>53529</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>72725</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>59565</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>71732</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>63845</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>78119</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>73660</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>73904</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>65463</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>70330</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>65921</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>59569</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>73264</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>75708</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>73943</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>63361</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>58037</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>80896</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>62986</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>62261</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>74672</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>80349</v>
       </c>
@@ -3151,7 +3151,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3163,7 +3163,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
